--- a/va_facility_data_2025-02-20/Conway VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Conway%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Conway VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Conway%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rca6bbadf218c4eadb25a5e330eebff00"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R354363bd50ef4e3999e6eea9d854c6cc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R42d0808c3ac64813a477a21a9a2b4046"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0ed8d38abf9f4852aae869abdc887c60"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc1747a524258435eaa1fd71ff9b237bd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R90724ae7b62b4197ab7391d8d498bcb4"/>
   </x:sheets>
 </x:workbook>
 </file>
